--- a/result/my_kmeans_result_200.xlsx
+++ b/result/my_kmeans_result_200.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="23475" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="my_kmeans_result" sheetId="1" r:id="rId1"/>
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>325</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -985,32 +985,32 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>809</v>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1040,32 +1040,32 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="1">
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>736</v>
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>163</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1095,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>897</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1117,109 +1117,109 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>838</v>
+      <c r="C18" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>894</v>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1227,406 +1227,406 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1">
-      <c r="A26" s="1">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>6</v>
       </c>
-      <c r="C26" s="1">
-        <v>897</v>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
         <v>7</v>
       </c>
-      <c r="B27">
-        <v>16</v>
-      </c>
       <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1">
-      <c r="A28" s="1">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>412</v>
+      <c r="C28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1">
-      <c r="A31" s="1">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>188</v>
+      <c r="C32" s="1">
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1">
       <c r="A34" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>520</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
       <c r="C36">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1">
       <c r="A37" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>503</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>397</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="A39" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>639</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>261</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1">
       <c r="A41" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
         <v>12</v>
       </c>
       <c r="C41" s="1">
-        <v>622</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1">
+      <c r="A45" s="1">
         <v>13</v>
       </c>
-      <c r="B43">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1">
-      <c r="A44" s="1">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>13</v>
       </c>
-      <c r="C45">
-        <v>448</v>
+      <c r="C45" s="1">
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1">
       <c r="A47" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1">
-        <v>637</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>257</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>866</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>4</v>
       </c>
-      <c r="C51">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1">
-      <c r="A52" s="1">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>17</v>
-      </c>
-      <c r="B53">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>367</v>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1">
+      <c r="A53" s="1">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1">
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
         <v>17</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
       <c r="C55">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1">
       <c r="A56" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1">
+      <c r="A58" s="1">
         <v>18</v>
       </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="B58" s="1">
         <v>18</v>
       </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1">
-      <c r="A59" s="1">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>476</v>
+      <c r="C58" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1">
+      <c r="A61" s="1">
         <v>19</v>
       </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>19</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>159</v>
+      <c r="B61" s="1">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1">
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>19</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1645,10 +1645,21 @@
         <v>19</v>
       </c>
       <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
         <v>19</v>
       </c>
-      <c r="C63">
-        <v>2</v>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
